--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Semi_Final/3i Infotech Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Semi_Final/3i Infotech Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of 3i Infotech(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of 3i Infotech(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of 3i Infotech(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>181</v>
-      </c>
-      <c r="C2">
-        <v>29.91</v>
       </c>
       <c r="D2">
         <v>29.91</v>
       </c>
       <c r="E2">
+        <v>29.91</v>
+      </c>
+      <c r="F2">
         <v>210.92</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>86.59999999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>447.06</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13.35</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>173.06</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>279.45</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>167.6</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>447.06</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>153.05</v>
-      </c>
-      <c r="C3">
-        <v>219.17</v>
       </c>
       <c r="D3">
         <v>219.17</v>
       </c>
       <c r="E3">
+        <v>219.17</v>
+      </c>
+      <c r="F3">
         <v>372.22</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16.09</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>111.78</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>801.3099999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-9.630000000000001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>209.38</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>332.04</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>469.27</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>801.3099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>156.3</v>
-      </c>
-      <c r="C4">
-        <v>305.35</v>
       </c>
       <c r="D4">
         <v>305.35</v>
       </c>
       <c r="E4">
+        <v>305.35</v>
+      </c>
+      <c r="F4">
         <v>461.65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12.97</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>133.11</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1131.73</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>41.55</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>137.79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>756.35</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>375.38</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1131.73</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>230.54</v>
-      </c>
-      <c r="C5">
-        <v>414.45</v>
       </c>
       <c r="D5">
         <v>414.45</v>
       </c>
       <c r="E5">
+        <v>414.45</v>
+      </c>
+      <c r="F5">
         <v>644.98</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>170.76</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2069.52</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>45.2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>249.38</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1492.13</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>577.4</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2069.52</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>230.75</v>
-      </c>
-      <c r="C6">
-        <v>515.9</v>
       </c>
       <c r="D6">
         <v>515.9</v>
       </c>
       <c r="E6">
+        <v>515.9</v>
+      </c>
+      <c r="F6">
         <v>746.65</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>145.62</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>467.05</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2657.52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>219.62</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>452.16</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1967.23</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>690.29</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2657.52</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>268.76</v>
-      </c>
-      <c r="C7">
-        <v>626.34</v>
       </c>
       <c r="D7">
         <v>626.34</v>
       </c>
       <c r="E7">
+        <v>626.34</v>
+      </c>
+      <c r="F7">
         <v>895.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>184</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>520.38</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2845.11</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>22.64</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>231.23</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2048.42</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>796.6900000000001</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2845.11</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>291.99</v>
-      </c>
-      <c r="C8">
-        <v>776.25</v>
       </c>
       <c r="D8">
         <v>776.25</v>
       </c>
       <c r="E8">
+        <v>776.25</v>
+      </c>
+      <c r="F8">
         <v>1068.24</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>318.03</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1007.63</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3270.15</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>120.57</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>217.83</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2408.2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>861.95</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3270.15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>291.99</v>
-      </c>
-      <c r="C9">
-        <v>372.29</v>
       </c>
       <c r="D9">
         <v>372.29</v>
       </c>
       <c r="E9">
+        <v>372.29</v>
+      </c>
+      <c r="F9">
         <v>664.28</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>172.26</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>672.71</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3578.55</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>307.77</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>798.63</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3009.22</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>569.33</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3578.55</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>636.55</v>
-      </c>
-      <c r="C10">
-        <v>397.11</v>
       </c>
       <c r="D10">
         <v>397.11</v>
       </c>
       <c r="E10">
+        <v>397.11</v>
+      </c>
+      <c r="F10">
         <v>1033.66</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>804.76</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>978.37</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4003.04</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>275.3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1534.68</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3752</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>251.04</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4003.04</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>637.64</v>
-      </c>
-      <c r="C11">
-        <v>-40.34</v>
       </c>
       <c r="D11">
         <v>-40.34</v>
       </c>
       <c r="E11">
+        <v>-40.34</v>
+      </c>
+      <c r="F11">
         <v>597.3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>482.14</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>826.45</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4488.99</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>217.69</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1426.48</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3791.29</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>697.7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4488.99</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>668.75</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1079.11</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-953.61</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-284.86</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>605.61</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>922.63</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3723.35</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>251.19</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1363.27</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3071.33</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>652.02</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3723.35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>924.48</v>
-      </c>
-      <c r="C13">
-        <v>-477.44</v>
       </c>
       <c r="D13">
         <v>-477.44</v>
       </c>
       <c r="E13">
+        <v>-477.44</v>
+      </c>
+      <c r="F13">
         <v>730.72</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1191.35</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1329.03</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2501.37</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>147.43</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>374.16</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1837.72</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>663.65</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2501.37</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>1495.35</v>
-      </c>
-      <c r="C14">
-        <v>-963.34</v>
       </c>
       <c r="D14">
         <v>-963.34</v>
       </c>
       <c r="E14">
+        <v>-963.34</v>
+      </c>
+      <c r="F14">
         <v>532.01</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1118.09</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1223.11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2485.84</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>142.48</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>368.29</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1793.02</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>692.8200000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2485.84</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>1957.25</v>
-      </c>
-      <c r="C15">
-        <v>-1512.72</v>
       </c>
       <c r="D15">
         <v>-1512.72</v>
       </c>
       <c r="E15">
+        <v>-1512.72</v>
+      </c>
+      <c r="F15">
         <v>444.53</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1119.43</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1226.63</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2344.48</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>140.95</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>366.25</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1680.92</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>663.5599999999999</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2344.48</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>1992.07</v>
-      </c>
-      <c r="C16">
-        <v>-1259.07</v>
       </c>
       <c r="D16">
         <v>-1259.07</v>
       </c>
       <c r="E16">
+        <v>-1259.07</v>
+      </c>
+      <c r="F16">
         <v>733</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1147.08</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1228.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2458.06</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>138.64</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>363.3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1682.66</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>775.4</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2458.06</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>2047.16</v>
-      </c>
-      <c r="C17">
-        <v>-1128.16</v>
       </c>
       <c r="D17">
         <v>-1128.16</v>
       </c>
       <c r="E17">
+        <v>-1128.16</v>
+      </c>
+      <c r="F17">
         <v>919</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1183.24</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1240.44</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2576.27</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>182.6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>406.67</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1775.45</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>800.8200000000001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2576.27</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>2047.16</v>
-      </c>
-      <c r="C18">
-        <v>-803.58</v>
       </c>
       <c r="D18">
         <v>-803.58</v>
       </c>
       <c r="E18">
+        <v>-803.58</v>
+      </c>
+      <c r="F18">
         <v>1243.58</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1105.29</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1172.32</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2563.05</v>
-      </c>
-      <c r="I18">
-        <v>78.34</v>
       </c>
       <c r="J18">
         <v>78.34</v>
       </c>
       <c r="K18">
+        <v>78.34</v>
+      </c>
+      <c r="L18">
         <v>1440.48</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1122.57</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2563.05</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>167.94</v>
-      </c>
-      <c r="C19">
-        <v>681.79</v>
       </c>
       <c r="D19">
         <v>681.79</v>
       </c>
       <c r="E19">
+        <v>681.79</v>
+      </c>
+      <c r="F19">
         <v>849.73</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1127.32</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1224.06</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2180.46</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>108.05</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>116.1</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1522.53</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>657.9299999999999</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2180.46</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>168.47</v>
-      </c>
-      <c r="C20">
-        <v>735.67</v>
       </c>
       <c r="D20">
         <v>735.67</v>
       </c>
       <c r="E20">
+        <v>735.67</v>
+      </c>
+      <c r="F20">
         <v>904.14</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1097.23</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1188.87</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2191.58</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>169.08</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>210.89</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1649.61</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>541.97</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2191.58</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>169.23</v>
-      </c>
-      <c r="C21">
-        <v>-81.97</v>
       </c>
       <c r="D21">
         <v>-81.97</v>
       </c>
       <c r="E21">
+        <v>-81.97</v>
+      </c>
+      <c r="F21">
         <v>87.26000000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>236.61</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>333.12</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>497.45</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>142.31</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>169.11</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>344.56</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>152.89</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>497.45</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>19.87</v>
+      </c>
+      <c r="D2">
+        <v>30.62</v>
+      </c>
+      <c r="E2">
+        <v>-58.86</v>
+      </c>
+      <c r="F2">
+        <v>26.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-1.74</v>
+      </c>
+      <c r="I2">
+        <v>9.66</v>
+      </c>
+      <c r="J2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>5.16</v>
+      </c>
+      <c r="E3">
+        <v>-74.45999999999999</v>
+      </c>
+      <c r="F3">
+        <v>307.59</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>238.29</v>
+      </c>
+      <c r="I3">
+        <v>7.92</v>
+      </c>
+      <c r="J3">
+        <v>246.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>51.05</v>
+      </c>
+      <c r="D4">
+        <v>111.26</v>
+      </c>
+      <c r="E4">
+        <v>-418.79</v>
+      </c>
+      <c r="F4">
+        <v>121.78</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-185.75</v>
+      </c>
+      <c r="I4">
+        <v>246.21</v>
+      </c>
+      <c r="J4">
+        <v>60.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>104.14</v>
+      </c>
+      <c r="D5">
+        <v>199.67</v>
+      </c>
+      <c r="E5">
+        <v>-764.8</v>
+      </c>
+      <c r="F5">
+        <v>537.35</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-27.79</v>
+      </c>
+      <c r="I5">
+        <v>60.45</v>
+      </c>
+      <c r="J5">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>161.4</v>
+      </c>
+      <c r="D6">
+        <v>356</v>
+      </c>
+      <c r="E6">
+        <v>-425.97</v>
+      </c>
+      <c r="F6">
+        <v>73.34</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.37</v>
+      </c>
+      <c r="I6">
+        <v>32.66</v>
+      </c>
+      <c r="J6">
+        <v>36.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>136.49</v>
+      </c>
+      <c r="D7">
+        <v>194.8</v>
+      </c>
+      <c r="E7">
+        <v>-386</v>
+      </c>
+      <c r="F7">
+        <v>189.45</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1.75</v>
+      </c>
+      <c r="I7">
+        <v>36.03</v>
+      </c>
+      <c r="J7">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>108.15</v>
+      </c>
+      <c r="D8">
+        <v>233.73</v>
+      </c>
+      <c r="E8">
+        <v>-152.96</v>
+      </c>
+      <c r="F8">
+        <v>-21.28</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>59.49</v>
+      </c>
+      <c r="I8">
+        <v>19.26</v>
+      </c>
+      <c r="J8">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>-165.25</v>
+      </c>
+      <c r="D9">
+        <v>-81.36</v>
+      </c>
+      <c r="E9">
+        <v>-15.79</v>
+      </c>
+      <c r="F9">
+        <v>42.79</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-54.36</v>
+      </c>
+      <c r="I9">
+        <v>78.75</v>
+      </c>
+      <c r="J9">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>-379.45</v>
+      </c>
+      <c r="D10">
+        <v>36.45</v>
+      </c>
+      <c r="E10">
+        <v>-39.79</v>
+      </c>
+      <c r="F10">
+        <v>-15.03</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-18.37</v>
+      </c>
+      <c r="I10">
+        <v>24.39</v>
+      </c>
+      <c r="J10">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>-417.92</v>
+      </c>
+      <c r="D11">
+        <v>-72.54000000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.01</v>
+      </c>
+      <c r="F11">
+        <v>77.52</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>6.99</v>
+      </c>
+      <c r="I11">
+        <v>6.02</v>
+      </c>
+      <c r="J11">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>-343.56</v>
+      </c>
+      <c r="D12">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-3.19</v>
+      </c>
+      <c r="F12">
+        <v>-79.31999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-8.52</v>
+      </c>
+      <c r="I12">
+        <v>13.01</v>
+      </c>
+      <c r="J12">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>-448</v>
+      </c>
+      <c r="D13">
+        <v>35.39</v>
+      </c>
+      <c r="E13">
+        <v>2.76</v>
+      </c>
+      <c r="F13">
+        <v>-25.33</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12.82</v>
+      </c>
+      <c r="I13">
+        <v>7.83</v>
+      </c>
+      <c r="J13">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>91.09</v>
+      </c>
+      <c r="D14">
+        <v>113.86</v>
+      </c>
+      <c r="E14">
+        <v>16.61</v>
+      </c>
+      <c r="F14">
+        <v>-56.31</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>74.16</v>
+      </c>
+      <c r="I14">
+        <v>20.65</v>
+      </c>
+      <c r="J14">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>-86.70999999999999</v>
+      </c>
+      <c r="D15">
+        <v>82.2</v>
+      </c>
+      <c r="E15">
+        <v>1.29</v>
+      </c>
+      <c r="F15">
+        <v>-146.08</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-62.59</v>
+      </c>
+      <c r="I15">
+        <v>94.81</v>
+      </c>
+      <c r="J15">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>250.85</v>
+      </c>
+      <c r="D16">
+        <v>86.52</v>
+      </c>
+      <c r="E16">
+        <v>2.64</v>
+      </c>
+      <c r="F16">
+        <v>-41.91</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>47.25</v>
+      </c>
+      <c r="I16">
+        <v>32.22</v>
+      </c>
+      <c r="J16">
+        <v>79.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>127.96</v>
+      </c>
+      <c r="D17">
+        <v>103.84</v>
+      </c>
+      <c r="E17">
+        <v>16.68</v>
+      </c>
+      <c r="F17">
+        <v>-132.75</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-12.23</v>
+      </c>
+      <c r="I17">
+        <v>79.47</v>
+      </c>
+      <c r="J17">
+        <v>67.23999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>324.56</v>
+      </c>
+      <c r="D18">
+        <v>388.69</v>
+      </c>
+      <c r="E18">
+        <v>561.6</v>
+      </c>
+      <c r="F18">
+        <v>-380.01</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>570.28</v>
+      </c>
+      <c r="I18">
+        <v>67.25</v>
+      </c>
+      <c r="J18">
+        <v>637.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>8.43</v>
+      </c>
+      <c r="D19">
+        <v>-57.44</v>
+      </c>
+      <c r="E19">
+        <v>10.09</v>
+      </c>
+      <c r="F19">
+        <v>-504.03</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-551.38</v>
+      </c>
+      <c r="I19">
+        <v>637.53</v>
+      </c>
+      <c r="J19">
+        <v>86.15000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>52.25</v>
+      </c>
+      <c r="D20">
+        <v>108</v>
+      </c>
+      <c r="E20">
+        <v>-105.15</v>
+      </c>
+      <c r="F20">
+        <v>-48.48</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-45.63</v>
+      </c>
+      <c r="I20">
+        <v>86.14</v>
+      </c>
+      <c r="J20">
+        <v>40.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>19.87</v>
-      </c>
-      <c r="C2">
-        <v>30.62</v>
-      </c>
-      <c r="D2">
-        <v>-58.86</v>
-      </c>
-      <c r="E2">
-        <v>26.5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-1.74</v>
-      </c>
-      <c r="H2">
-        <v>9.66</v>
-      </c>
-      <c r="I2">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>5.16</v>
-      </c>
-      <c r="D3">
-        <v>-74.45999999999999</v>
-      </c>
-      <c r="E3">
-        <v>307.59</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>238.29</v>
-      </c>
-      <c r="H3">
-        <v>7.92</v>
-      </c>
-      <c r="I3">
-        <v>246.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>51.05</v>
-      </c>
-      <c r="C4">
-        <v>111.26</v>
-      </c>
-      <c r="D4">
-        <v>-418.79</v>
-      </c>
-      <c r="E4">
-        <v>121.78</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-185.75</v>
-      </c>
-      <c r="H4">
-        <v>246.21</v>
-      </c>
-      <c r="I4">
-        <v>60.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>104.14</v>
-      </c>
-      <c r="C5">
-        <v>199.67</v>
-      </c>
-      <c r="D5">
-        <v>-764.8</v>
-      </c>
-      <c r="E5">
-        <v>537.35</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-27.79</v>
-      </c>
-      <c r="H5">
-        <v>60.45</v>
-      </c>
-      <c r="I5">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>161.4</v>
-      </c>
-      <c r="C6">
-        <v>356</v>
-      </c>
-      <c r="D6">
-        <v>-425.97</v>
-      </c>
-      <c r="E6">
-        <v>73.34</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3.37</v>
-      </c>
-      <c r="H6">
-        <v>32.66</v>
-      </c>
-      <c r="I6">
-        <v>36.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>136.49</v>
-      </c>
-      <c r="C7">
-        <v>194.8</v>
-      </c>
-      <c r="D7">
-        <v>-386</v>
-      </c>
-      <c r="E7">
-        <v>189.45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-1.75</v>
-      </c>
-      <c r="H7">
-        <v>36.03</v>
-      </c>
-      <c r="I7">
-        <v>34.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>108.15</v>
-      </c>
-      <c r="C8">
-        <v>233.73</v>
-      </c>
-      <c r="D8">
-        <v>-152.96</v>
-      </c>
-      <c r="E8">
-        <v>-21.28</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>59.49</v>
-      </c>
-      <c r="H8">
-        <v>19.26</v>
-      </c>
-      <c r="I8">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>-165.25</v>
-      </c>
-      <c r="C9">
-        <v>-81.36</v>
-      </c>
-      <c r="D9">
-        <v>-15.79</v>
-      </c>
-      <c r="E9">
-        <v>42.79</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-54.36</v>
-      </c>
-      <c r="H9">
-        <v>78.75</v>
-      </c>
-      <c r="I9">
-        <v>24.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>-379.45</v>
-      </c>
-      <c r="C10">
-        <v>36.45</v>
-      </c>
-      <c r="D10">
-        <v>-39.79</v>
-      </c>
-      <c r="E10">
-        <v>-15.03</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-18.37</v>
-      </c>
-      <c r="H10">
-        <v>24.39</v>
-      </c>
-      <c r="I10">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>-417.92</v>
-      </c>
-      <c r="C11">
-        <v>-72.54000000000001</v>
-      </c>
-      <c r="D11">
-        <v>2.01</v>
-      </c>
-      <c r="E11">
-        <v>77.52</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>6.99</v>
-      </c>
-      <c r="H11">
-        <v>6.02</v>
-      </c>
-      <c r="I11">
-        <v>13.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>-343.56</v>
-      </c>
-      <c r="C12">
-        <v>73.98999999999999</v>
-      </c>
-      <c r="D12">
-        <v>-3.19</v>
-      </c>
-      <c r="E12">
-        <v>-79.31999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-8.52</v>
-      </c>
-      <c r="H12">
-        <v>13.01</v>
-      </c>
-      <c r="I12">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>-448</v>
-      </c>
-      <c r="C13">
-        <v>35.39</v>
-      </c>
-      <c r="D13">
-        <v>2.76</v>
-      </c>
-      <c r="E13">
-        <v>-25.33</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>12.82</v>
-      </c>
-      <c r="H13">
-        <v>7.83</v>
-      </c>
-      <c r="I13">
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>91.09</v>
-      </c>
-      <c r="C14">
-        <v>113.86</v>
-      </c>
-      <c r="D14">
-        <v>16.61</v>
-      </c>
-      <c r="E14">
-        <v>-56.31</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>74.16</v>
-      </c>
-      <c r="H14">
-        <v>20.65</v>
-      </c>
-      <c r="I14">
-        <v>94.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>-86.70999999999999</v>
-      </c>
-      <c r="C15">
-        <v>82.2</v>
-      </c>
-      <c r="D15">
-        <v>1.29</v>
-      </c>
-      <c r="E15">
-        <v>-146.08</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>-62.59</v>
-      </c>
-      <c r="H15">
-        <v>94.81</v>
-      </c>
-      <c r="I15">
-        <v>32.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>250.85</v>
-      </c>
-      <c r="C16">
-        <v>86.52</v>
-      </c>
-      <c r="D16">
-        <v>2.64</v>
-      </c>
-      <c r="E16">
-        <v>-41.91</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>47.25</v>
-      </c>
-      <c r="H16">
-        <v>32.22</v>
-      </c>
-      <c r="I16">
-        <v>79.47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>127.96</v>
-      </c>
-      <c r="C17">
-        <v>103.84</v>
-      </c>
-      <c r="D17">
-        <v>16.68</v>
-      </c>
-      <c r="E17">
-        <v>-132.75</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>-12.23</v>
-      </c>
-      <c r="H17">
-        <v>79.47</v>
-      </c>
-      <c r="I17">
-        <v>67.23999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>324.56</v>
-      </c>
-      <c r="C18">
-        <v>388.69</v>
-      </c>
-      <c r="D18">
-        <v>561.6</v>
-      </c>
-      <c r="E18">
-        <v>-380.01</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>570.28</v>
-      </c>
-      <c r="H18">
-        <v>67.25</v>
-      </c>
-      <c r="I18">
-        <v>637.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>8.43</v>
-      </c>
-      <c r="C19">
-        <v>-57.44</v>
-      </c>
-      <c r="D19">
-        <v>10.09</v>
-      </c>
-      <c r="E19">
-        <v>-504.03</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>-551.38</v>
-      </c>
-      <c r="H19">
-        <v>637.53</v>
-      </c>
-      <c r="I19">
-        <v>86.15000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>52.25</v>
-      </c>
-      <c r="C20">
-        <v>108</v>
-      </c>
-      <c r="D20">
-        <v>-105.15</v>
-      </c>
-      <c r="E20">
-        <v>-48.48</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>-45.63</v>
-      </c>
-      <c r="H20">
-        <v>86.14</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>-818.63</v>
+      </c>
+      <c r="D21">
+        <v>14.63</v>
+      </c>
+      <c r="E21">
+        <v>-10.34</v>
+      </c>
+      <c r="F21">
+        <v>-16.05</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-11.76</v>
+      </c>
+      <c r="I21">
         <v>40.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>-818.63</v>
-      </c>
-      <c r="C21">
-        <v>14.63</v>
-      </c>
-      <c r="D21">
-        <v>-10.34</v>
-      </c>
-      <c r="E21">
-        <v>-16.05</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>-11.76</v>
-      </c>
-      <c r="H21">
-        <v>40.51</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>28.75</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>207.03</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>207.03</v>
@@ -2328,66 +2421,69 @@
         <v>207.03</v>
       </c>
       <c r="E2">
+        <v>207.03</v>
+      </c>
+      <c r="F2">
         <v>2.3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>209.33</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>140.7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8.130000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.69</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>17.01</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13.88</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>190.55</v>
-      </c>
-      <c r="M2">
-        <v>18.78</v>
       </c>
       <c r="N2">
         <v>18.78</v>
       </c>
       <c r="O2">
+        <v>18.78</v>
+      </c>
+      <c r="P2">
         <v>1.28</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4.28</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5.56</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>13.22</v>
-      </c>
-      <c r="S2">
-        <v>17.61</v>
       </c>
       <c r="T2">
         <v>17.61</v>
       </c>
       <c r="U2">
-        <v>5.68</v>
+        <v>17.61</v>
       </c>
       <c r="V2">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>276.03</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>276.03</v>
@@ -2396,66 +2492,69 @@
         <v>276.03</v>
       </c>
       <c r="E3">
+        <v>276.03</v>
+      </c>
+      <c r="F3">
         <v>5.7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>281.73</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>167.4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15.61</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.64</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>23.68</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>27.41</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>240.73</v>
-      </c>
-      <c r="M3">
-        <v>41</v>
       </c>
       <c r="N3">
         <v>41</v>
       </c>
       <c r="O3">
+        <v>41</v>
+      </c>
+      <c r="P3">
         <v>0.9399999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.83</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.75</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>38.25</v>
-      </c>
-      <c r="S3">
-        <v>39.3</v>
       </c>
       <c r="T3">
         <v>39.3</v>
       </c>
       <c r="U3">
-        <v>7.41</v>
+        <v>39.3</v>
       </c>
       <c r="V3">
         <v>7.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>332.37</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>332.37</v>
@@ -2464,66 +2563,69 @@
         <v>332.37</v>
       </c>
       <c r="E4">
+        <v>332.37</v>
+      </c>
+      <c r="F4">
         <v>12.63</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>345</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>83.94</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>137.96</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18.43</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13.77</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>41.94</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>296.04</v>
-      </c>
-      <c r="M4">
-        <v>48.96</v>
       </c>
       <c r="N4">
         <v>48.96</v>
       </c>
       <c r="O4">
+        <v>48.96</v>
+      </c>
+      <c r="P4">
         <v>0.01</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.6</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.61</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>47.35</v>
-      </c>
-      <c r="S4">
-        <v>64.26000000000001</v>
       </c>
       <c r="T4">
         <v>64.26000000000001</v>
       </c>
       <c r="U4">
-        <v>11.41</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="V4">
         <v>11.41</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>447.27</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>447.27</v>
@@ -2532,66 +2634,69 @@
         <v>447.27</v>
       </c>
       <c r="E5">
+        <v>447.27</v>
+      </c>
+      <c r="F5">
         <v>16.09</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>463.36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>99.84</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>189.02</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>37.89</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>25.06</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7.58</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>364.33</v>
-      </c>
-      <c r="M5">
-        <v>99.02</v>
       </c>
       <c r="N5">
         <v>99.02</v>
       </c>
       <c r="O5">
+        <v>99.02</v>
+      </c>
+      <c r="P5">
         <v>0.02</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.61</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.45</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>95.56999999999999</v>
-      </c>
-      <c r="S5">
-        <v>95.51000000000001</v>
       </c>
       <c r="T5">
         <v>95.51000000000001</v>
       </c>
       <c r="U5">
-        <v>7.32</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="V5">
         <v>7.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>527.24</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>527.24</v>
@@ -2600,66 +2705,69 @@
         <v>527.24</v>
       </c>
       <c r="E6">
+        <v>527.24</v>
+      </c>
+      <c r="F6">
         <v>10.49</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>537.73</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>103.85</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>211.15</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>61.77</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>47.99</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-48.43</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>376.33</v>
-      </c>
-      <c r="M6">
-        <v>161.4</v>
       </c>
       <c r="N6">
         <v>161.4</v>
       </c>
       <c r="O6">
+        <v>161.4</v>
+      </c>
+      <c r="P6">
         <v>0.03</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.55</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.39</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>159.01</v>
-      </c>
-      <c r="S6">
-        <v>184.57</v>
       </c>
       <c r="T6">
         <v>184.57</v>
       </c>
       <c r="U6">
-        <v>14.12</v>
+        <v>184.57</v>
       </c>
       <c r="V6">
         <v>14.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>519.99</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>519.99</v>
@@ -2668,66 +2776,69 @@
         <v>519.99</v>
       </c>
       <c r="E7">
+        <v>519.99</v>
+      </c>
+      <c r="F7">
         <v>13.03</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>533.02</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>114.14</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>290.67</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>40.5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>94.33</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-143.11</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>396.53</v>
-      </c>
-      <c r="M7">
-        <v>136.49</v>
       </c>
       <c r="N7">
         <v>136.49</v>
       </c>
       <c r="O7">
+        <v>136.49</v>
+      </c>
+      <c r="P7">
         <v>0.03</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3.03</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.06</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>133.43</v>
-      </c>
-      <c r="S7">
-        <v>-99.61</v>
       </c>
       <c r="T7">
         <v>-99.61</v>
       </c>
       <c r="U7">
-        <v>-5.9</v>
+        <v>-99.61</v>
       </c>
       <c r="V7">
         <v>-5.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>550.25</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>550.25</v>
@@ -2736,46 +2847,46 @@
         <v>550.25</v>
       </c>
       <c r="E8">
+        <v>550.25</v>
+      </c>
+      <c r="F8">
         <v>28.37</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>578.62</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>94.06999999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>133.38</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>51.75</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>191.27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>470.47</v>
-      </c>
-      <c r="M8">
-        <v>108.15</v>
       </c>
       <c r="N8">
         <v>108.15</v>
       </c>
       <c r="O8">
+        <v>108.15</v>
+      </c>
+      <c r="P8">
         <v>22.71</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-11.31</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-11.24</v>
-      </c>
-      <c r="R8">
-        <v>119.39</v>
       </c>
       <c r="S8">
         <v>119.39</v>
@@ -2784,18 +2895,21 @@
         <v>119.39</v>
       </c>
       <c r="U8">
+        <v>119.39</v>
+      </c>
+      <c r="V8">
         <v>5.85</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>5.83</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>514.16</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>514.16</v>
@@ -2804,66 +2918,69 @@
         <v>514.16</v>
       </c>
       <c r="E9">
+        <v>514.16</v>
+      </c>
+      <c r="F9">
         <v>26.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>540.62</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>235.72</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>206.14</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>90.01000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>174</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>705.87</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-165.25</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-252.47</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>59.26</v>
-      </c>
-      <c r="R9">
-        <v>-311.73</v>
       </c>
       <c r="S9">
         <v>-311.73</v>
       </c>
       <c r="T9">
+        <v>-311.73</v>
+      </c>
+      <c r="U9">
         <v>-326.15</v>
-      </c>
-      <c r="U9">
-        <v>-17.37</v>
       </c>
       <c r="V9">
         <v>-17.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>-17.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>365.47</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>365.47</v>
@@ -2872,46 +2989,46 @@
         <v>365.47</v>
       </c>
       <c r="E10">
+        <v>365.47</v>
+      </c>
+      <c r="F10">
         <v>50.72</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>416.19</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>223.29</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>284.1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>224.64</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>63.61</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>795.64</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-379.45</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-246.49</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0.02</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>8.869999999999999</v>
-      </c>
-      <c r="R10">
-        <v>-255.36</v>
       </c>
       <c r="S10">
         <v>-255.36</v>
@@ -2920,18 +3037,21 @@
         <v>-255.36</v>
       </c>
       <c r="U10">
-        <v>-5.92</v>
+        <v>-255.36</v>
       </c>
       <c r="V10">
         <v>-5.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>-5.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>326.5</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>326.5</v>
@@ -2940,46 +3060,46 @@
         <v>326.5</v>
       </c>
       <c r="E11">
+        <v>326.5</v>
+      </c>
+      <c r="F11">
         <v>68.81999999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>395.32</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>211.63</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>300.22</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>236.33</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>65.06</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>813.24</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-417.92</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-453.77</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>-17.67</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-13.55</v>
-      </c>
-      <c r="R11">
-        <v>-440.22</v>
       </c>
       <c r="S11">
         <v>-440.22</v>
@@ -2988,18 +3108,21 @@
         <v>-440.22</v>
       </c>
       <c r="U11">
-        <v>-7.78</v>
+        <v>-440.22</v>
       </c>
       <c r="V11">
         <v>-7.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>-7.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>400.72</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>400.72</v>
@@ -3008,46 +3131,46 @@
         <v>400.72</v>
       </c>
       <c r="E12">
+        <v>400.72</v>
+      </c>
+      <c r="F12">
         <v>3.09</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>403.81</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>217.68</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>194.69</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>222.88</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>112.12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>747.37</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-343.56</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-1034.18</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>23.57</v>
-      </c>
-      <c r="R12">
-        <v>-1057.75</v>
       </c>
       <c r="S12">
         <v>-1057.75</v>
@@ -3056,66 +3179,69 @@
         <v>-1057.75</v>
       </c>
       <c r="U12">
-        <v>-18.25</v>
+        <v>-1057.75</v>
       </c>
       <c r="V12">
         <v>-18.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>-18.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>330.26</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>330.26</v>
       </c>
       <c r="D13">
+        <v>330.26</v>
+      </c>
+      <c r="E13">
         <v>345.09</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>84.29000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>429.38</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>49.93</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>120.82</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>163.66</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>210.62</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>109.89</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>654.92</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-225.54</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-448</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>85.88</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>91.7</v>
-      </c>
-      <c r="R13">
-        <v>-539.7</v>
       </c>
       <c r="S13">
         <v>-539.7</v>
@@ -3124,66 +3250,69 @@
         <v>-539.7</v>
       </c>
       <c r="U13">
-        <v>-8.67</v>
+        <v>-539.7</v>
       </c>
       <c r="V13">
         <v>-8.67</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>-8.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>265.49</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>265.49</v>
       </c>
       <c r="D14">
+        <v>265.49</v>
+      </c>
+      <c r="E14">
         <v>279.07</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>65.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>344.87</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>36.12</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>86.16</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>87.26000000000001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>7.31</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>36.93</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>253.78</v>
-      </c>
-      <c r="M14">
-        <v>91.09</v>
       </c>
       <c r="N14">
         <v>91.09</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>91.09</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>-1.49</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-1.17</v>
-      </c>
-      <c r="R14">
-        <v>92.26000000000001</v>
       </c>
       <c r="S14">
         <v>92.26000000000001</v>
@@ -3192,57 +3321,60 @@
         <v>92.26000000000001</v>
       </c>
       <c r="U14">
-        <v>0.75</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="V14">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>224.61</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>224.61</v>
       </c>
       <c r="D15">
+        <v>224.61</v>
+      </c>
+      <c r="E15">
         <v>237.51</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>57.21</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>294.72</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>21.51</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>77.95</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>82.8</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7.16</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>192.01</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>381.43</v>
-      </c>
-      <c r="M15">
-        <v>-86.70999999999999</v>
       </c>
       <c r="N15">
         <v>-86.70999999999999</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-86.70999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3251,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-86.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>-86.70999999999999</v>
@@ -3260,57 +3392,60 @@
         <v>-86.70999999999999</v>
       </c>
       <c r="U15">
-        <v>-0.54</v>
+        <v>-86.70999999999999</v>
       </c>
       <c r="V15">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>268.26</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>268.26</v>
       </c>
       <c r="D16">
+        <v>268.26</v>
+      </c>
+      <c r="E16">
         <v>283.93</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>221.55</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>505.48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>29.01</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>88.63</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>80.56</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6.82</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>49.61</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>254.63</v>
-      </c>
-      <c r="M16">
-        <v>250.85</v>
       </c>
       <c r="N16">
         <v>250.85</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>250.85</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3319,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>250.85</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>250.85</v>
@@ -3328,18 +3463,21 @@
         <v>250.85</v>
       </c>
       <c r="U16">
-        <v>1.55</v>
+        <v>250.85</v>
       </c>
       <c r="V16">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>197.46</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>197.46</v>
@@ -3348,66 +3486,69 @@
         <v>197.46</v>
       </c>
       <c r="E17">
+        <v>197.46</v>
+      </c>
+      <c r="F17">
         <v>103.02</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>300.48</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>51.33</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>73.67</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>86.62</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>16.31</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>16.88</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>244.81</v>
-      </c>
-      <c r="M17">
-        <v>55.67</v>
       </c>
       <c r="N17">
         <v>55.67</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>55.67</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="R17">
-        <v>55.6</v>
       </c>
       <c r="S17">
         <v>55.6</v>
       </c>
       <c r="T17">
+        <v>55.6</v>
+      </c>
+      <c r="U17">
         <v>127.89</v>
-      </c>
-      <c r="U17">
-        <v>0.79</v>
       </c>
       <c r="V17">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>207.77</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>207.77</v>
@@ -3416,106 +3557,109 @@
         <v>207.77</v>
       </c>
       <c r="E18">
+        <v>207.77</v>
+      </c>
+      <c r="F18">
         <v>42.65</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>250.42</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>54.41</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>88.41</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>82.89</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12.81</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>48.22</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>286.74</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-36.32</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>254.19</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>0.15</v>
-      </c>
-      <c r="R18">
-        <v>254.04</v>
       </c>
       <c r="S18">
         <v>254.04</v>
       </c>
       <c r="T18">
+        <v>254.04</v>
+      </c>
+      <c r="U18">
         <v>324.41</v>
-      </c>
-      <c r="U18">
-        <v>2.01</v>
       </c>
       <c r="V18">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>200.97</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>200.97</v>
       </c>
       <c r="D19">
+        <v>200.97</v>
+      </c>
+      <c r="E19">
         <v>212.04</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>57.06</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>269.1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>72.89</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>105.19</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>11.33</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>12.69</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>37.77</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>239.87</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>29.23</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>8.43</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -3523,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>8.43</v>
@@ -3532,58 +3676,61 @@
         <v>8.43</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>8.43</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>262.77</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>262.77</v>
       </c>
       <c r="D20">
+        <v>262.77</v>
+      </c>
+      <c r="E20">
         <v>276.24</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>114.96</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>391.2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>121.15</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>148.36</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>21.2</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>53.72</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>353.43</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>37.77</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>52.25</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -3591,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>52.25</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>52.25</v>
@@ -3600,18 +3747,21 @@
         <v>52.25</v>
       </c>
       <c r="U20">
+        <v>52.25</v>
+      </c>
+      <c r="V20">
         <v>3.1</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3.05</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>357.33</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>357.33</v>
@@ -3620,38 +3770,38 @@
         <v>357.33</v>
       </c>
       <c r="E21">
+        <v>357.33</v>
+      </c>
+      <c r="F21">
         <v>61.18</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>418.51</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>158.16</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>186.09</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8.720000000000001</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>24.82</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>434.75</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>812.54</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-394.03</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-818.63</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -3659,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>-818.63</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>-818.63</v>
@@ -3668,9 +3818,12 @@
         <v>-818.63</v>
       </c>
       <c r="U21">
+        <v>-818.63</v>
+      </c>
+      <c r="V21">
         <v>-48.52</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-48.52</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>78.26000000000001</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>90.95</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>79.08</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>93.17</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>108.29</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>105.8</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>93.45999999999999</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>81.77</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>84.08</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>79.54000000000001</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>84.84999999999999</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>81.33</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>55.93</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>64.56999999999999</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>66.98999999999999</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>55.38</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>57.72</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>58.12</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>66.29000000000001</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>58.7</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>75.67</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>74.27</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>75.28</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>74.20999999999999</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>80.98</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>91.59999999999999</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>91.48</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>81.58</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>86.33</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>86.72</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>52.22</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>53.1</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>58.63</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>46.86</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>54.01</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>62.58</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>68.62</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>69.65000000000001</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>75.40000000000001</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>82.78</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>91.06999999999999</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>91.64</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>91.83</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>89.77</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>89.40000000000001</v>
@@ -6960,503 +7113,527 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>66.78</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>14.99</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9.51</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6.06</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5.68</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22.44</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14.23</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9.07</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>28.9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.93</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.33</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30.67</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15.53</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>69.33</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>52.04</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>13.45</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.98</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.73</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.41</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25.83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17.26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>14.85</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14.23</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>14.43</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.9</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.16</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>26.99</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16.84</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>73.01000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1134.78</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>15.91</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>59.04</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14.42</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>11.97</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8.699999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11.41</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24.41</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20.27</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14.73</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>19.33</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17.76</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.67</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.51</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17.52</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>14.42</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>82.48</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1939.34</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>23.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>34.26</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>12.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.49</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.59</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7.32</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>36.21</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>30.6</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>22.13</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>21.35</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>17.52</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.61</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.32</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>21.9</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>16.66</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>78.09999999999999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2593.85</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>16.01</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>40.32</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20.74</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17.07</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>12.34</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>14.12</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>51.43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>42.32</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>30.61</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>35</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>28.54</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6.94</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.35</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10.62</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8.43</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>89.38</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1946.77</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>7.18</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>30.81</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16.08</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10.49</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.09</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-5.9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>52.17</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>34.03</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>26.24</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-19.15</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-12.52</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-3.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.02</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-25.41</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-479.54</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>125.41</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2988.13</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>28.66</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>15.28</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>12.58</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5.63</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6.22</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>53.29</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>43.89</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>19.65</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>21.69</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12.33</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.65</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.6</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>32.33</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>22.56</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>67.67</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2380.17</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8.119999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>26.78</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.82</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.13</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-13.15</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-16.99</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>25.45</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.95</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-49.1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-63.43</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-57.79</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-9.109999999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3.38</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -7464,55 +7641,58 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>2266.99</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>17.32</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>6.39</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.26</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1.67</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-4.31</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-4.47</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>35.37</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-26.08</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-67.44</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-69.87</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-26.36</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-6.37</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.03</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -7520,55 +7700,58 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>2335.69</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>18.07</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>5.7</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.07</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-2.06</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-7.92</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-7.69</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>36.33</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-36.04</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-138.98</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-134.83</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-82.7</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-9.800000000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4.22</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -7576,55 +7759,58 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>2741.56</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>23.11</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>6.64</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.23</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-2.47</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-17.13</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-17.52</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18.46</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-37.15</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-258.08</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-263.96</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>-28.4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-4.49</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -7632,55 +7818,58 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>2541.77</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>34.34</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>5.39</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2.32</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.97</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-6.99</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-8.42</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>43.1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-17.93</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-129.82</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-156.39</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-330.37</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-21.57</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.4</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -7688,55 +7877,58 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1248.49</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>8.390000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>2.36</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.57</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.51</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.77</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.78</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>66.52</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>63.9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>32.64</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>33.05</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>41.87</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3.71</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.31</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -7744,55 +7936,58 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1542.11</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>8.31</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>1.47</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.02</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.02</v>
-      </c>
-      <c r="E15">
-        <v>-0.54</v>
       </c>
       <c r="F15">
         <v>-0.54</v>
       </c>
       <c r="G15">
+        <v>-0.54</v>
+      </c>
+      <c r="H15">
         <v>1.36</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-1.64</v>
-      </c>
-      <c r="I15">
-        <v>-36.5</v>
       </c>
       <c r="J15">
         <v>-36.5</v>
       </c>
       <c r="K15">
+        <v>-36.5</v>
+      </c>
+      <c r="L15">
         <v>-84.47</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-3.69</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6.08</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -7800,55 +7995,58 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1745.85</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>537.1799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>1.76</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.09</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.05</v>
-      </c>
-      <c r="E16">
-        <v>1.55</v>
       </c>
       <c r="F16">
         <v>1.55</v>
       </c>
       <c r="G16">
+        <v>1.55</v>
+      </c>
+      <c r="H16">
         <v>119.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>116.72</v>
-      </c>
-      <c r="I16">
-        <v>88.34</v>
       </c>
       <c r="J16">
         <v>88.34</v>
       </c>
       <c r="K16">
+        <v>88.34</v>
+      </c>
+      <c r="L16">
         <v>70.15000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>10.2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.26</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -7856,55 +8054,58 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>1365.6</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>4.04</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>1.22</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.98</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.88</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.34</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.79</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>80.31999999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>72.06</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>28.19</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>64.76000000000001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>26.18</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4.96</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.66</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
@@ -7912,55 +8113,58 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>898.85</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.67</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>1.29</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.37</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.29</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.57</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.01</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>28.57</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>22.41</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>122.34</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>156.13</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>39.89</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>12.65</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.13</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
         <v>0</v>
       </c>
@@ -7968,55 +8172,58 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>1099.63</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>18.52</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>12.63</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3.17</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.42</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
       </c>
       <c r="F19">
         <v>0.5</v>
       </c>
       <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
         <v>25.11</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>19.12</v>
-      </c>
-      <c r="I19">
-        <v>3.97</v>
       </c>
       <c r="J19">
         <v>3.97</v>
       </c>
       <c r="K19">
+        <v>3.97</v>
+      </c>
+      <c r="L19">
         <v>0.99</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.38</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.1</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
@@ -8024,55 +8231,58 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>857.89</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>16.11</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>16.4</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4.03</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2.78</v>
-      </c>
-      <c r="E20">
-        <v>3.1</v>
       </c>
       <c r="F20">
         <v>3.1</v>
       </c>
       <c r="G20">
+        <v>3.1</v>
+      </c>
+      <c r="H20">
         <v>24.6</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>16.93</v>
-      </c>
-      <c r="I20">
-        <v>18.91</v>
       </c>
       <c r="J20">
         <v>18.91</v>
       </c>
       <c r="K20">
+        <v>18.91</v>
+      </c>
+      <c r="L20">
         <v>5.77</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.38</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.05</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -8080,55 +8290,58 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>470.87</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6.93</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>21.12</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-21.3</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-22.77</v>
-      </c>
-      <c r="E21">
-        <v>-48.37</v>
       </c>
       <c r="F21">
         <v>-48.37</v>
       </c>
       <c r="G21">
+        <v>-48.37</v>
+      </c>
+      <c r="H21">
         <v>-100.88</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-107.83</v>
-      </c>
-      <c r="I21">
-        <v>-229.09</v>
       </c>
       <c r="J21">
         <v>-229.09</v>
       </c>
       <c r="K21">
+        <v>-229.09</v>
+      </c>
+      <c r="L21">
         <v>-938.15</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-164.56</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.44</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -8136,9 +8349,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>677.99</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-1.88</v>
       </c>
     </row>
